--- a/Scratch/AutomationProject/user.xlsx
+++ b/Scratch/AutomationProject/user.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Automation Practice\frameworkPractice\Scratch\AutomationProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E914EB0D-F1A2-4EBA-9DC3-01B6EE105F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>testCaseName</t>
   </si>
@@ -86,20 +95,33 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>interests</t>
+  </si>
+  <si>
+    <t>{"Automation Testing","Manual Testing"}</t>
+  </si>
+  <si>
+    <t>{"Automation Testing"}</t>
+  </si>
+  <si>
+    <t>{"Manual Testing"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -109,7 +131,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -119,38 +141,43 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -340,20 +367,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -375,8 +416,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -393,13 +437,16 @@
         <v>11</v>
       </c>
       <c r="F2" s="2">
-        <v>1.23456789E9</v>
+        <v>1234567890</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -416,13 +463,16 @@
         <v>17</v>
       </c>
       <c r="F3" s="2">
-        <v>9.087654321E9</v>
+        <v>9087654321</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -439,13 +489,16 @@
         <v>23</v>
       </c>
       <c r="F4" s="2">
-        <v>9.876787623E9</v>
+        <v>9876787623</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Scratch/AutomationProject/user.xlsx
+++ b/Scratch/AutomationProject/user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Automation Practice\frameworkPractice\Scratch\AutomationProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E914EB0D-F1A2-4EBA-9DC3-01B6EE105F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F232535-4C04-4F25-8814-7A69C935FA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>testCaseName</t>
   </si>
@@ -100,13 +100,25 @@
     <t>interests</t>
   </si>
   <si>
-    <t>{"Automation Testing","Manual Testing"}</t>
-  </si>
-  <si>
-    <t>{"Automation Testing"}</t>
-  </si>
-  <si>
-    <t>{"Manual Testing"}</t>
+    <t>Automation Testing,Manual Testing</t>
+  </si>
+  <si>
+    <t>Automation Testing</t>
+  </si>
+  <si>
+    <t>Manual Testing</t>
+  </si>
+  <si>
+    <t>languages</t>
+  </si>
+  <si>
+    <t>Arabic,Filipino</t>
+  </si>
+  <si>
+    <t>Filipino</t>
+  </si>
+  <si>
+    <t>Arabic</t>
   </si>
 </sst>
 </file>
@@ -377,10 +389,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -394,7 +406,7 @@
     <col min="8" max="8" width="33.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,8 +431,11 @@
       <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -445,8 +460,11 @@
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -471,8 +489,11 @@
       <c r="H3" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -496,6 +517,9 @@
       </c>
       <c r="H4" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Scratch/AutomationProject/user.xlsx
+++ b/Scratch/AutomationProject/user.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Automation Practice\frameworkPractice\Scratch\AutomationProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F232535-4C04-4F25-8814-7A69C935FA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0779FC6-64DF-4AEC-8AF9-B23A62495344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>testCaseName</t>
   </si>
@@ -52,9 +52,6 @@
     <t>xyz</t>
   </si>
   <si>
-    <t>address abc xyz</t>
-  </si>
-  <si>
     <t>abcxyz@gmail.com</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>xyz1</t>
   </si>
   <si>
-    <t>address abc1 xyz1</t>
-  </si>
-  <si>
     <t>abc1xyz1@gmail.com</t>
   </si>
   <si>
@@ -88,9 +82,6 @@
     <t>xyz2</t>
   </si>
   <si>
-    <t>address abc2 xyz2</t>
-  </si>
-  <si>
     <t>abc2xyz2@gmail.com</t>
   </si>
   <si>
@@ -103,22 +94,58 @@
     <t>Automation Testing,Manual Testing</t>
   </si>
   <si>
-    <t>Automation Testing</t>
-  </si>
-  <si>
     <t>Manual Testing</t>
   </si>
   <si>
     <t>languages</t>
   </si>
   <si>
-    <t>Arabic,Filipino</t>
-  </si>
-  <si>
     <t>Filipino</t>
   </si>
   <si>
     <t>Arabic</t>
+  </si>
+  <si>
+    <t>address - abcxyz</t>
+  </si>
+  <si>
+    <t>address - abc1xyz1</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>address - abc2xyz2</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>APIs</t>
+  </si>
+  <si>
+    <t>Adobe Photoshop</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>54321pass</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>Srilanka</t>
   </si>
 </sst>
 </file>
@@ -133,23 +160,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -161,18 +184,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -385,144 +406,184 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E17A17-C7EC-4D36-AE07-A7EA175D8814}">
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>9876543210</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>29</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>9777283210</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1234567890</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="1" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>9872323210</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2">
-        <v>9087654321</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I4" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2">
-        <v>9876787623</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>32</v>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{48AA8655-C830-4FB1-85AD-B342DB4E9A93}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{CF6F9177-A58C-4085-9D9C-881CA945F6DB}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{B9A8A482-438F-4DE3-AD3F-56AFEB94BD7F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Scratch/AutomationProject/user.xlsx
+++ b/Scratch/AutomationProject/user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Automation Practice\frameworkPractice\Scratch\AutomationProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0779FC6-64DF-4AEC-8AF9-B23A62495344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91553684-F6B4-467D-A385-AB53CC446A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>testCaseName</t>
   </si>
@@ -58,66 +58,21 @@
     <t>Male</t>
   </si>
   <si>
-    <t>TC_02</t>
-  </si>
-  <si>
-    <t>abc1</t>
-  </si>
-  <si>
-    <t>xyz1</t>
-  </si>
-  <si>
-    <t>abc1xyz1@gmail.com</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>TC_03</t>
-  </si>
-  <si>
-    <t>abc2</t>
-  </si>
-  <si>
-    <t>xyz2</t>
-  </si>
-  <si>
-    <t>abc2xyz2@gmail.com</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>interests</t>
   </si>
   <si>
     <t>Automation Testing,Manual Testing</t>
   </si>
   <si>
-    <t>Manual Testing</t>
-  </si>
-  <si>
     <t>languages</t>
   </si>
   <si>
-    <t>Filipino</t>
-  </si>
-  <si>
     <t>Arabic</t>
   </si>
   <si>
     <t>address - abcxyz</t>
   </si>
   <si>
-    <t>address - abc1xyz1</t>
-  </si>
-  <si>
-    <t>Development</t>
-  </si>
-  <si>
-    <t>address - abc2xyz2</t>
-  </si>
-  <si>
     <t>skill</t>
   </si>
   <si>
@@ -127,25 +82,10 @@
     <t>APIs</t>
   </si>
   <si>
-    <t>Adobe Photoshop</t>
-  </si>
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>54321pass</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
     <t>India</t>
-  </si>
-  <si>
-    <t>America</t>
-  </si>
-  <si>
-    <t>Srilanka</t>
   </si>
 </sst>
 </file>
@@ -407,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E17A17-C7EC-4D36-AE07-A7EA175D8814}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -449,19 +389,19 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="K1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -475,7 +415,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -487,102 +427,24 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="L2">
         <v>12345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>9777283210</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>9872323210</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{48AA8655-C830-4FB1-85AD-B342DB4E9A93}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{CF6F9177-A58C-4085-9D9C-881CA945F6DB}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{B9A8A482-438F-4DE3-AD3F-56AFEB94BD7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
